--- a/medicine/Mort/Nécropole_nationale_de_Villers-Carbonnel/Nécropole_nationale_de_Villers-Carbonnel.xlsx
+++ b/medicine/Mort/Nécropole_nationale_de_Villers-Carbonnel/Nécropole_nationale_de_Villers-Carbonnel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Villers-Carbonnel</t>
+          <t>Nécropole_nationale_de_Villers-Carbonnel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécropole nationale de Villers-Carbonnel est un cimetière militaire français de la Première Guerre mondiale situé sur le territoire de la commune de Villers-Carbonnel dans le département de la Somme.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Villers-Carbonnel</t>
+          <t>Nécropole_nationale_de_Villers-Carbonnel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cimetière militaire est situé en bordure de la route départementale no 1029 – E44 (dénommée RN29 jusqu'en 2006, et reliant notamment Amiens à Saint-Quentin[Note 1]) à l'entrée ouest du village, environ cent cinquante mètres avant le carrefour avec la route départementale no 1017 (jusqu'en 2006, RN 17, reliant notamment Roye — au sud — à Péronne — au nord[Note 2]).
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Villers-Carbonnel</t>
+          <t>Nécropole_nationale_de_Villers-Carbonnel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette nécropole de 6 328 m2 a été édifiée en 1920 : la même année, on y a regroupé des tombes de soldats provenant des cimetières de Barleux et de Flaucourt[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette nécropole de 6 328 m2 a été édifiée en 1920 : la même année, on y a regroupé des tombes de soldats provenant des cimetières de Barleux et de Flaucourt.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Villers-Carbonnel</t>
+          <t>Nécropole_nationale_de_Villers-Carbonnel</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière rassemble 2 285 corps, dont 1 295 en ossuaires[2]. On trouve là les tombes de soldats morts au cours des différentes batailles de la Somme.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière rassemble 2 285 corps, dont 1 295 en ossuaires. On trouve là les tombes de soldats morts au cours des différentes batailles de la Somme.
 La commune de Villers-Carbonnel a érigé, dans la nécropole nationale, son monument aux morts. Sur le monument a été gravée cette inscription : 
 « 1914-1918 Aux enfants de Villers-Carbonnel morts pour la France comme sont morts tous ceux qui reposent en ce lieu. »
 Dans cette nécropole se trouvent également les tombes de 18 soldats tués dans les environs en mai et juin 1940 et inhumés ici en 1941.
